--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:15:54+00:00</t>
+    <t>2024-05-22T12:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -511,32 +511,47 @@
     <t>Ingredient.role</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-codeableconcept}
+</t>
+  </si>
+  <si>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/v1/lists/100000072050"/&gt;
+    &lt;code value="100000072072"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>https://ema.europa.eu/fhir/vs/ingredientRole</t>
+  </si>
+  <si>
+    <t>n/a,CD</t>
+  </si>
+  <si>
+    <t>Ingredient.function</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Purpose of the ingredient within the product, e.g. active, inactive</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its purpose within the product, e.g. active, inactive.</t>
+    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
+  </si>
+  <si>
+    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ingredient-role</t>
-  </si>
-  <si>
-    <t>Ingredient.Ingredient Role</t>
-  </si>
-  <si>
-    <t>Ingredient.function</t>
-  </si>
-  <si>
-    <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
-  </si>
-  <si>
-    <t>A classification of the ingredient identifying its precise purpose(s) in the drug product. This extends the Ingredient.role to add more detail. Example: antioxidant, alkalizing agent.</t>
   </si>
   <si>
     <t>A classification of the ingredient identifying its precise purpose(s) in the drug product (beyond e.g. active/inactive).</t>
@@ -739,23 +754,7 @@
     <t>Ingredient.substance.code.concept</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-codeableconcept}
-</t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>CodeableReference.concept</t>
-  </si>
-  <si>
-    <t>n/a,CD</t>
   </si>
   <si>
     <t>Ingredient.substance.code.concept.id</t>
@@ -3051,7 +3050,7 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>159</v>
@@ -3062,7 +3061,9 @@
       <c r="M14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
@@ -3072,7 +3073,7 @@
         <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>73</v>
@@ -3087,13 +3088,11 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>73</v>
@@ -3129,18 +3128,18 @@
         <v>73</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3163,13 +3162,13 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3196,13 +3195,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3220,7 +3219,7 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -3246,10 +3245,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3272,13 +3271,13 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3329,7 +3328,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3355,10 +3354,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3381,13 +3380,13 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3395,7 +3394,7 @@
         <v>73</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>73</v>
@@ -3440,7 +3439,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3449,7 +3448,7 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>95</v>
@@ -3458,7 +3457,7 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>73</v>
@@ -3466,10 +3465,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3492,13 +3491,13 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3549,7 +3548,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3575,10 +3574,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3601,13 +3600,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3658,7 +3657,7 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
@@ -3676,7 +3675,7 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>73</v>
@@ -3684,10 +3683,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3710,13 +3709,13 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3767,7 +3766,7 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>74</v>
@@ -3776,7 +3775,7 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
@@ -3793,10 +3792,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3825,7 +3824,7 @@
         <v>132</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>134</v>
@@ -3878,7 +3877,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3904,14 +3903,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3933,10 +3932,10 @@
         <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>134</v>
@@ -3991,7 +3990,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -4017,10 +4016,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4046,10 +4045,10 @@
         <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4079,28 +4078,28 @@
         <v>107</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
@@ -4118,7 +4117,7 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4126,10 +4125,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4152,13 +4151,13 @@
         <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4209,7 +4208,7 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
@@ -4227,7 +4226,7 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
@@ -4235,10 +4234,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4261,13 +4260,13 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4318,7 +4317,7 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>83</v>
@@ -4327,7 +4326,7 @@
         <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>95</v>
@@ -4336,7 +4335,7 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4344,10 +4343,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4370,13 +4369,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4427,7 +4426,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4436,7 +4435,7 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>73</v>
@@ -4453,10 +4452,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4485,7 +4484,7 @@
         <v>132</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>134</v>
@@ -4538,7 +4537,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4564,14 +4563,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4593,10 +4592,10 @@
         <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>134</v>
@@ -4651,7 +4650,7 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
@@ -4677,10 +4676,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4703,13 +4702,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4736,13 +4735,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4760,7 +4759,7 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4769,7 +4768,7 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>95</v>
@@ -4778,7 +4777,7 @@
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>73</v>
@@ -4786,10 +4785,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4815,10 +4814,10 @@
         <v>85</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4869,7 +4868,7 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
@@ -4878,7 +4877,7 @@
         <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>73</v>
@@ -4895,10 +4894,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4927,7 +4926,7 @@
         <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>134</v>
@@ -4968,19 +4967,19 @@
         <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -5006,10 +5005,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5032,16 +5031,16 @@
         <v>73</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5091,7 +5090,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5112,15 +5111,15 @@
         <v>73</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>236</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5146,10 +5145,10 @@
         <v>85</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5200,7 +5199,7 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>74</v>
@@ -5209,7 +5208,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>73</v>
@@ -5226,10 +5225,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5258,7 +5257,7 @@
         <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>134</v>
@@ -5299,19 +5298,19 @@
         <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
@@ -5337,10 +5336,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5363,19 +5362,19 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5412,19 +5411,19 @@
         <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5436,7 +5435,7 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5445,18 +5444,18 @@
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>73</v>
@@ -5478,19 +5477,19 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5539,7 +5538,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5551,7 +5550,7 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5560,15 +5559,15 @@
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5594,10 +5593,10 @@
         <v>85</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5648,7 +5647,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -5657,7 +5656,7 @@
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>73</v>
@@ -5674,10 +5673,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5706,7 +5705,7 @@
         <v>132</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>134</v>
@@ -5747,19 +5746,19 @@
         <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
@@ -5785,10 +5784,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5814,16 +5813,16 @@
         <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -5833,7 +5832,7 @@
         <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>73</v>
@@ -5872,7 +5871,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5893,15 +5892,15 @@
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5924,13 +5923,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5981,7 +5980,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -6007,10 +6006,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6036,10 +6035,10 @@
         <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6078,17 +6077,17 @@
         <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6114,13 +6113,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>73</v>
@@ -6142,13 +6141,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6199,7 +6198,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6225,10 +6224,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6254,10 +6253,10 @@
         <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6308,7 +6307,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6334,10 +6333,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6360,16 +6359,16 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6419,7 +6418,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6440,15 +6439,15 @@
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6474,14 +6473,14 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>73</v>
@@ -6530,7 +6529,7 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
@@ -6539,7 +6538,7 @@
         <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>95</v>
@@ -6551,15 +6550,15 @@
         <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6582,17 +6581,17 @@
         <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6641,7 +6640,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6650,7 +6649,7 @@
         <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>95</v>
@@ -6662,15 +6661,15 @@
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6693,19 +6692,19 @@
         <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -6754,7 +6753,7 @@
         <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6775,18 +6774,18 @@
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>73</v>
@@ -6808,19 +6807,19 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
@@ -6869,7 +6868,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6881,7 +6880,7 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6890,15 +6889,15 @@
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6924,10 +6923,10 @@
         <v>85</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6978,7 +6977,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6987,7 +6986,7 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>73</v>
@@ -7004,10 +7003,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7036,7 +7035,7 @@
         <v>132</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>134</v>
@@ -7077,19 +7076,19 @@
         <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7115,10 +7114,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7144,16 +7143,16 @@
         <v>97</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7163,7 +7162,7 @@
         <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>73</v>
@@ -7202,7 +7201,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7223,15 +7222,15 @@
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7254,13 +7253,13 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7311,7 +7310,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7337,10 +7336,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7366,10 +7365,10 @@
         <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7408,17 +7407,17 @@
         <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7444,13 +7443,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>73</v>
@@ -7472,13 +7471,13 @@
         <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7529,7 +7528,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7555,10 +7554,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7584,10 +7583,10 @@
         <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7638,7 +7637,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7664,10 +7663,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7690,16 +7689,16 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7749,7 +7748,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7770,15 +7769,15 @@
         <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7804,14 +7803,14 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
@@ -7860,7 +7859,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7869,7 +7868,7 @@
         <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>95</v>
@@ -7881,15 +7880,15 @@
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7912,17 +7911,17 @@
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>73</v>
@@ -7971,7 +7970,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -7980,7 +7979,7 @@
         <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>95</v>
@@ -7992,15 +7991,15 @@
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8023,19 +8022,19 @@
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8084,7 +8083,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8105,15 +8104,15 @@
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8136,19 +8135,19 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8197,7 +8196,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8218,15 +8217,15 @@
         <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8249,13 +8248,13 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8306,7 +8305,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8332,10 +8331,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8358,13 +8357,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8415,7 +8414,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8427,13 +8426,13 @@
         <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>73</v>
@@ -8441,10 +8440,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8467,13 +8466,13 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8524,7 +8523,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8533,7 +8532,7 @@
         <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>73</v>
@@ -8550,10 +8549,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8582,7 +8581,7 @@
         <v>132</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>134</v>
@@ -8635,7 +8634,7 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8661,14 +8660,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8690,10 +8689,10 @@
         <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>134</v>
@@ -8748,7 +8747,7 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8774,10 +8773,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8800,13 +8799,13 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8857,7 +8856,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -8875,7 +8874,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>73</v>
@@ -8883,10 +8882,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8909,13 +8908,13 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8966,7 +8965,7 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -8992,10 +8991,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9018,13 +9017,13 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9075,7 +9074,7 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -9093,7 +9092,7 @@
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>73</v>
@@ -9101,10 +9100,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9127,13 +9126,13 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9184,7 +9183,7 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9210,10 +9209,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9236,13 +9235,13 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9293,7 +9292,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9319,10 +9318,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9345,13 +9344,13 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9402,7 +9401,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9420,7 +9419,7 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>73</v>
@@ -9428,10 +9427,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9454,13 +9453,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9487,13 +9486,13 @@
         <v>73</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>73</v>
@@ -9511,7 +9510,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9529,7 +9528,7 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>73</v>
@@ -9537,10 +9536,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9563,13 +9562,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9620,7 +9619,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9638,7 +9637,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>73</v>
@@ -9646,10 +9645,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9672,13 +9671,13 @@
         <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9729,7 +9728,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9738,7 +9737,7 @@
         <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>73</v>
@@ -9755,10 +9754,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9787,7 +9786,7 @@
         <v>132</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>134</v>
@@ -9840,7 +9839,7 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
@@ -9866,14 +9865,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9895,10 +9894,10 @@
         <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>134</v>
@@ -9953,7 +9952,7 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -9979,10 +9978,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10005,13 +10004,13 @@
         <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10038,13 +10037,13 @@
         <v>73</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>73</v>
@@ -10062,7 +10061,7 @@
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>83</v>
@@ -10080,7 +10079,7 @@
         <v>73</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>73</v>
@@ -10088,10 +10087,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10114,13 +10113,13 @@
         <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10171,7 +10170,7 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -10189,7 +10188,7 @@
         <v>73</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>73</v>
@@ -10197,10 +10196,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10223,13 +10222,13 @@
         <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10280,7 +10279,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10298,7 +10297,7 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>73</v>
@@ -10306,10 +10305,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10332,13 +10331,13 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10365,13 +10364,13 @@
         <v>73</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>73</v>
@@ -10389,7 +10388,7 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
@@ -10407,7 +10406,7 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>73</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -515,7 +515,7 @@
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
+    <t>Ingredient role</t>
   </si>
   <si>
     <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
@@ -754,6 +754,9 @@
     <t>Ingredient.substance.code.concept</t>
   </si>
   <si>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
     <t>CodeableReference.concept</t>
   </si>
   <si>
@@ -817,58 +820,7 @@
     <t>Ingredient.substance.code.concept.coding.extension</t>
   </si>
   <si>
-    <t>Ingredient.substance.code.concept.coding:substancePharos.system</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://www.ages.at/fhir/GRZ</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substancePharos.system.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.system.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substancePharos.system.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.system.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substancePharos.system.extension:codeSystemName</t>
+    <t>Ingredient.substance.code.concept.coding:substancePharos.extension:codeSystemName</t>
   </si>
   <si>
     <t>codeSystemName</t>
@@ -878,22 +830,37 @@
 </t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
     <t>Name of the coding system the 'coding' element belongs to as the number is not very explicative</t>
   </si>
   <si>
-    <t>Ingredient.substance.code.concept.coding:substancePharos.system.value</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding.system.value</t>
-  </si>
-  <si>
-    <t>Primitive value for uri</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>uri.value</t>
+    <t>Ingredient.substance.code.concept.coding:substancePharos.system</t>
+  </si>
+  <si>
+    <t>Ingredient.substance.code.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/GRZ</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
   </si>
   <si>
     <t>Ingredient.substance.code.concept.coding:substancePharos.version</t>
@@ -999,22 +966,16 @@
     <t>Ingredient.substance.code.concept.coding:substanceSMS.extension</t>
   </si>
   <si>
+    <t>Ingredient.substance.code.concept.coding:substanceSMS.extension:codeSystemName</t>
+  </si>
+  <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.system</t>
   </si>
   <si>
+    <t>Active ingredient</t>
+  </si>
+  <si>
     <t>https://spor.ema.europa.eu/v3/SubstanceDefinition</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substanceSMS.system.id</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substanceSMS.system.extension</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substanceSMS.system.extension:codeSystemName</t>
-  </si>
-  <si>
-    <t>Ingredient.substance.code.concept.coding:substanceSMS.system.value</t>
   </si>
   <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.version</t>
@@ -1069,7 +1030,7 @@
     <t>Ingredient.substance.strength</t>
   </si>
   <si>
-    <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity</t>
+    <t>Active ingredient strength &amp; unit</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
@@ -1200,7 +1161,7 @@
     <t>Ingredient.substance.strength.referenceStrength.substance</t>
   </si>
   <si>
-    <t>Relevant reference substance</t>
+    <t>Reference ingredient</t>
   </si>
   <si>
     <t>Relevant reference substance.</t>
@@ -1214,6 +1175,9 @@
   <si>
     <t>Ratio
 RatioRangeQuantity</t>
+  </si>
+  <si>
+    <t>Reference ingredient strength &amp; unit</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance.</t>
@@ -1531,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1540,7 +1504,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="90.3046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="83.09375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="64.1953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -5034,7 +4998,7 @@
         <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>161</v>
@@ -5090,7 +5054,7 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>74</v>
@@ -5116,10 +5080,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5225,10 +5189,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5336,10 +5300,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5362,19 +5326,19 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>73</v>
@@ -5411,10 +5375,10 @@
         <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>73</v>
@@ -5423,7 +5387,7 @@
         <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5435,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5444,18 +5408,18 @@
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>73</v>
@@ -5477,19 +5441,19 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5538,7 +5502,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5550,7 +5514,7 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5559,15 +5523,15 @@
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5673,10 +5637,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5784,18 +5748,20 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -5807,23 +5773,19 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O39" t="s" s="2">
         <v>259</v>
       </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>73</v>
       </c>
@@ -5832,7 +5794,7 @@
         <v>73</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>73</v>
@@ -5871,19 +5833,19 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>73</v>
@@ -5892,15 +5854,15 @@
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>262</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5908,7 +5870,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>83</v>
@@ -5920,19 +5882,23 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>73</v>
       </c>
@@ -5941,7 +5907,7 @@
         <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>73</v>
@@ -5980,7 +5946,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5992,7 +5958,7 @@
         <v>73</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>73</v>
@@ -6001,15 +5967,15 @@
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6020,7 +5986,7 @@
         <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>73</v>
@@ -6029,18 +5995,20 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6077,29 +6045,31 @@
         <v>73</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AC41" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AD41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -6108,25 +6078,23 @@
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>83</v>
@@ -6138,19 +6106,21 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>273</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6198,19 +6168,19 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
@@ -6219,15 +6189,15 @@
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6235,7 +6205,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>83</v>
@@ -6247,19 +6217,21 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
       </c>
@@ -6307,7 +6279,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6316,10 +6288,10 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
@@ -6328,15 +6300,15 @@
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6359,18 +6331,20 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
       </c>
@@ -6418,7 +6392,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6439,23 +6413,25 @@
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>83</v>
@@ -6467,20 +6443,22 @@
         <v>73</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>73</v>
@@ -6529,19 +6507,19 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
@@ -6550,15 +6528,15 @@
         <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6566,7 +6544,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
@@ -6578,21 +6556,19 @@
         <v>73</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>193</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>73</v>
       </c>
@@ -6640,7 +6616,7 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
@@ -6649,10 +6625,10 @@
         <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
@@ -6661,7 +6637,7 @@
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>301</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47">
@@ -6669,18 +6645,18 @@
         <v>302</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6689,23 +6665,21 @@
         <v>73</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>73</v>
       </c>
@@ -6741,31 +6715,31 @@
         <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>73</v>
@@ -6774,18 +6748,18 @@
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>309</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>73</v>
@@ -6807,20 +6781,16 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6868,7 +6838,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -6880,7 +6850,7 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6889,15 +6859,15 @@
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6905,7 +6875,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>83</v>
@@ -6917,19 +6887,23 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6938,7 +6912,7 @@
         <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>73</v>
@@ -6977,7 +6951,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6986,10 +6960,10 @@
         <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>73</v>
@@ -6998,26 +6972,26 @@
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>147</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>73</v>
@@ -7026,19 +7000,19 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7076,31 +7050,31 @@
         <v>73</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>73</v>
@@ -7109,15 +7083,15 @@
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>147</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7140,19 +7114,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7162,7 +7134,7 @@
         <v>73</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>315</v>
+        <v>73</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>73</v>
@@ -7201,7 +7173,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7210,7 +7182,7 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
@@ -7222,15 +7194,15 @@
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7238,7 +7210,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>83</v>
@@ -7250,19 +7222,21 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
       </c>
@@ -7310,7 +7284,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7319,10 +7293,10 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>73</v>
@@ -7331,15 +7305,15 @@
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7350,7 +7324,7 @@
         <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>73</v>
@@ -7359,19 +7333,23 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7407,29 +7385,31 @@
         <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7438,19 +7418,17 @@
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7468,19 +7446,23 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7528,19 +7510,19 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7549,15 +7531,15 @@
         <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7577,16 +7559,16 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7637,7 +7619,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7649,7 +7631,7 @@
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7658,15 +7640,15 @@
         <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7674,7 +7656,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>83</v>
@@ -7689,17 +7671,15 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>73</v>
@@ -7748,36 +7728,36 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>326</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>286</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7785,7 +7765,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>83</v>
@@ -7797,21 +7777,19 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7859,7 +7837,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7868,10 +7846,10 @@
         <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>293</v>
+        <v>196</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
@@ -7880,26 +7858,26 @@
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>294</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>73</v>
@@ -7908,21 +7886,21 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>73</v>
       </c>
@@ -7970,19 +7948,19 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>300</v>
+        <v>199</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
@@ -7991,50 +7969,50 @@
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>301</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8083,19 +8061,19 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>308</v>
+        <v>204</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -8104,15 +8082,15 @@
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>309</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8135,20 +8113,16 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8196,7 +8170,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8214,18 +8188,18 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>330</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8248,13 +8222,13 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8305,7 +8279,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8323,18 +8297,18 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8342,7 +8316,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>83</v>
@@ -8357,13 +8331,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8414,25 +8388,25 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>73</v>
@@ -8440,10 +8414,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8463,16 +8437,16 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>194</v>
+        <v>345</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8523,7 +8497,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8532,38 +8506,38 @@
         <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>73</v>
@@ -8572,20 +8546,18 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>73</v>
@@ -8634,72 +8606,68 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>202</v>
+        <v>350</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>73</v>
       </c>
@@ -8747,36 +8715,36 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8787,7 +8755,7 @@
         <v>74</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>73</v>
@@ -8799,13 +8767,13 @@
         <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8832,13 +8800,13 @@
         <v>73</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>73</v>
@@ -8856,13 +8824,13 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>73</v>
@@ -8874,7 +8842,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>73</v>
@@ -8882,10 +8850,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8896,7 +8864,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -8908,13 +8876,13 @@
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8965,13 +8933,13 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>73</v>
@@ -8983,7 +8951,7 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>73</v>
@@ -8991,10 +8959,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9014,16 +8982,16 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>345</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9074,7 +9042,7 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>352</v>
+        <v>195</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -9083,38 +9051,38 @@
         <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>73</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>73</v>
@@ -9123,18 +9091,20 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>357</v>
+        <v>132</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>73</v>
@@ -9183,68 +9153,72 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>356</v>
+        <v>199</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>360</v>
+        <v>202</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9292,36 +9266,36 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>359</v>
+        <v>204</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9329,7 +9303,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9344,13 +9318,13 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9377,13 +9351,13 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9401,10 +9375,10 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>83</v>
@@ -9419,7 +9393,7 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>73</v>
@@ -9427,10 +9401,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9438,10 +9412,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>73</v>
@@ -9453,13 +9427,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9486,37 +9460,37 @@
         <v>73</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>369</v>
+        <v>73</v>
       </c>
       <c r="Z72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AG72" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>73</v>
@@ -9528,7 +9502,7 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>73</v>
@@ -9536,10 +9510,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9550,7 +9524,7 @@
         <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>73</v>
@@ -9562,13 +9536,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9619,13 +9593,13 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>73</v>
@@ -9637,7 +9611,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>73</v>
@@ -9645,10 +9619,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9659,7 +9633,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>73</v>
@@ -9668,16 +9642,16 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9704,13 +9678,13 @@
         <v>73</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>73</v>
+        <v>356</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>73</v>
@@ -9728,687 +9702,27 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>195</v>
+        <v>378</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>73</v>
+        <v>379</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM80" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -515,7 +515,7 @@
 </t>
   </si>
   <si>
-    <t>Ingredient role</t>
+    <t>Purpose of the ingredient within the product, e.g. active, inactive (ingredient role)</t>
   </si>
   <si>
     <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
@@ -808,6 +808,9 @@
     <t>substancePharos</t>
   </si>
   <si>
+    <t>Substance</t>
+  </si>
+  <si>
     <t>Ingredient.substance.code.concept.coding:substancePharos.id</t>
   </si>
   <si>
@@ -842,7 +845,7 @@
     <t>Ingredient.substance.code.concept.coding.system</t>
   </si>
   <si>
-    <t>Substance</t>
+    <t>Identity of the terminology system</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -960,6 +963,9 @@
     <t>substanceSMS</t>
   </si>
   <si>
+    <t>Active ingredient</t>
+  </si>
+  <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.id</t>
   </si>
   <si>
@@ -970,9 +976,6 @@
   </si>
   <si>
     <t>Ingredient.substance.code.concept.coding:substanceSMS.system</t>
-  </si>
-  <si>
-    <t>Active ingredient</t>
   </si>
   <si>
     <t>https://spor.ema.europa.eu/v3/SubstanceDefinition</t>
@@ -1030,7 +1033,7 @@
     <t>Ingredient.substance.strength</t>
   </si>
   <si>
-    <t>Active ingredient strength &amp; unit</t>
+    <t>The quantity of substance, per presentation, or per volume or mass, and type of quantity (active ingredient strength &amp; unit)</t>
   </si>
   <si>
     <t>The quantity of substance in the unit of presentation, or in the volume (or mass) of the single pharmaceutical product or manufactured item. The allowed repetitions do not represent different strengths, but are different representations - mathematically equivalent - of a single strength.</t>
@@ -1161,7 +1164,7 @@
     <t>Ingredient.substance.strength.referenceStrength.substance</t>
   </si>
   <si>
-    <t>Reference ingredient</t>
+    <t>Relevant reference substance (reference ingredient)</t>
   </si>
   <si>
     <t>Relevant reference substance.</t>
@@ -1177,7 +1180,7 @@
 RatioRangeQuantity</t>
   </si>
   <si>
-    <t>Reference ingredient strength &amp; unit</t>
+    <t>Strength expressed in terms of a reference substance (reference ingredient strength &amp; unit)</t>
   </si>
   <si>
     <t>Strength expressed in terms of a reference substance.</t>
@@ -5444,7 +5447,7 @@
         <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>241</v>
@@ -5528,10 +5531,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5637,10 +5640,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5748,13 +5751,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="B39" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="C39" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>73</v>
@@ -5776,13 +5779,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5859,10 +5862,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5888,16 +5891,16 @@
         <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>73</v>
@@ -5907,7 +5910,7 @@
         <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>73</v>
@@ -5946,7 +5949,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5967,15 +5970,15 @@
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6001,13 +6004,13 @@
         <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6057,7 +6060,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6078,15 +6081,15 @@
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6112,14 +6115,14 @@
         <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6168,7 +6171,7 @@
         <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
@@ -6177,7 +6180,7 @@
         <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>95</v>
@@ -6189,15 +6192,15 @@
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6223,14 +6226,14 @@
         <v>192</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6279,7 +6282,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6288,7 +6291,7 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>95</v>
@@ -6300,15 +6303,15 @@
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6334,16 +6337,16 @@
         <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6392,7 +6395,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -6413,18 +6416,18 @@
         <v>73</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>238</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>73</v>
@@ -6449,7 +6452,7 @@
         <v>239</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>241</v>
@@ -6533,10 +6536,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6642,10 +6645,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6753,13 +6756,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>73</v>
@@ -6781,13 +6784,13 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6864,10 +6867,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6893,16 +6896,16 @@
         <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>73</v>
@@ -6912,7 +6915,7 @@
         <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>73</v>
@@ -6951,7 +6954,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6972,15 +6975,15 @@
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7006,13 +7009,13 @@
         <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7062,7 +7065,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7083,15 +7086,15 @@
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7117,14 +7120,14 @@
         <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7173,7 +7176,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7182,7 +7185,7 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
@@ -7194,15 +7197,15 @@
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7228,14 +7231,14 @@
         <v>192</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7284,7 +7287,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7293,7 +7296,7 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>95</v>
@@ -7305,15 +7308,15 @@
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7339,16 +7342,16 @@
         <v>177</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7397,7 +7400,7 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>74</v>
@@ -7418,15 +7421,15 @@
         <v>73</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7452,16 +7455,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>73</v>
@@ -7510,7 +7513,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7531,15 +7534,15 @@
         <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7562,13 +7565,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7619,7 +7622,7 @@
         <v>73</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
@@ -7645,10 +7648,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7674,10 +7677,10 @@
         <v>188</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7728,7 +7731,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7740,13 +7743,13 @@
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -7754,10 +7757,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7863,10 +7866,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7974,10 +7977,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8087,10 +8090,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8113,13 +8116,13 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8170,7 +8173,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8188,7 +8191,7 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>73</v>
@@ -8196,10 +8199,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8225,10 +8228,10 @@
         <v>192</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8279,7 +8282,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8305,10 +8308,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8331,13 +8334,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8388,7 +8391,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8406,7 +8409,7 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>73</v>
@@ -8414,10 +8417,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8443,10 +8446,10 @@
         <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8497,7 +8500,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8523,10 +8526,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8552,10 +8555,10 @@
         <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8606,7 +8609,7 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8632,10 +8635,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8661,10 +8664,10 @@
         <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8715,7 +8718,7 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8733,7 +8736,7 @@
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>73</v>
@@ -8741,10 +8744,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8770,10 +8773,10 @@
         <v>167</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8803,10 +8806,10 @@
         <v>170</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>73</v>
@@ -8824,7 +8827,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -8842,7 +8845,7 @@
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>73</v>
@@ -8850,10 +8853,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8879,10 +8882,10 @@
         <v>188</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8933,7 +8936,7 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -8951,7 +8954,7 @@
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>73</v>
@@ -8959,10 +8962,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9068,10 +9071,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9179,10 +9182,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9292,10 +9295,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9321,10 +9324,10 @@
         <v>222</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9375,7 +9378,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -9393,7 +9396,7 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>73</v>
@@ -9401,10 +9404,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9427,13 +9430,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9484,7 +9487,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -9502,7 +9505,7 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>73</v>
@@ -9510,10 +9513,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9539,10 +9542,10 @@
         <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9593,7 +9596,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9611,7 +9614,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>73</v>
@@ -9619,10 +9622,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9648,10 +9651,10 @@
         <v>167</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9681,10 +9684,10 @@
         <v>170</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>73</v>
@@ -9702,7 +9705,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9720,7 +9723,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>73</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -461,20 +461,217 @@
     <t>Ingredient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-identifier}
 </t>
   </si>
   <si>
-    <t>An identifier or code by which the ingredient can be referenced</t>
-  </si>
-  <si>
-    <t>The identifier(s) of this Ingredient that are assigned by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate.</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+  </si>
+  <si>
+    <t>The rules of the identifier.type  determine if a check digit is part of the ID value or sent separately, such as through the checkDigit extension.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ident-1:Identifier with no value has limited utility.  If communicating that an identifier value has been suppressed or missing, the value element SHOULD be present with an extension indicating the missing semantic - e.g. data-absent-reason {value.exists()}</t>
+  </si>
+  <si>
+    <t>n/a,II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/GRZ</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Ingredient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>Ingredient.status</t>
@@ -541,10 +738,6 @@
     <t>Ingredient.function</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Precise action within the drug product, e.g. antioxidant, alkalizing agent</t>
   </si>
   <si>
@@ -621,30 +814,7 @@
     <t>Ingredient.manufacturer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Ingredient.manufacturer.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Ingredient.manufacturer.modifierExtension</t>
@@ -685,10 +855,6 @@
     <t>Ingredient.manufacturer.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>An organization that manufactures this ingredient.</t>
   </si>
   <si>
@@ -741,16 +907,6 @@
     <t>Ingredient.substance.code.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Ingredient.substance.code.concept</t>
   </si>
   <si>
@@ -855,9 +1011,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://www.ages.at/fhir/GRZ</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1498,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1526,7 +1679,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1544,7 +1697,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="51.97265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="147.234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2676,7 +2829,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>83</v>
@@ -2688,7 +2841,7 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>143</v>
@@ -2699,7 +2852,9 @@
       <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>73</v>
@@ -2760,24 +2915,24 @@
         <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>73</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2785,7 +2940,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
@@ -2794,23 +2949,21 @@
         <v>73</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>151</v>
       </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>73</v>
@@ -2835,71 +2988,71 @@
         <v>73</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2908,18 +3061,20 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2956,19 +3111,19 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2980,24 +3135,24 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3005,7 +3160,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>83</v>
@@ -3014,24 +3169,26 @@
         <v>73</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>73</v>
       </c>
@@ -3040,7 +3197,7 @@
         <v>73</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>73</v>
@@ -3057,9 +3214,11 @@
       <c r="X14" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y14" s="2"/>
+      <c r="Y14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>73</v>
@@ -3077,10 +3236,10 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>83</v>
@@ -3098,15 +3257,15 @@
         <v>73</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3117,7 +3276,7 @@
         <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>73</v>
@@ -3129,16 +3288,20 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>73</v>
       </c>
@@ -3162,13 +3325,13 @@
         <v>73</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>73</v>
@@ -3186,13 +3349,13 @@
         <v>73</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>73</v>
@@ -3204,18 +3367,18 @@
         <v>73</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3223,7 +3386,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>83</v>
@@ -3238,16 +3401,20 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
       </c>
@@ -3256,10 +3423,10 @@
         <v>73</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>73</v>
@@ -3295,7 +3462,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -3313,18 +3480,18 @@
         <v>73</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3332,7 +3499,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>83</v>
@@ -3347,22 +3514,22 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Q17" t="s" s="2">
-        <v>180</v>
-      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
         <v>73</v>
       </c>
@@ -3370,7 +3537,7 @@
         <v>73</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>73</v>
@@ -3406,7 +3573,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -3415,7 +3582,7 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>95</v>
@@ -3424,18 +3591,18 @@
         <v>73</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3455,16 +3622,16 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3515,7 +3682,7 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>74</v>
@@ -3533,18 +3700,18 @@
         <v>73</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3555,7 +3722,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -3567,15 +3734,17 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -3624,13 +3793,13 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>73</v>
@@ -3642,18 +3811,18 @@
         <v>73</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3661,7 +3830,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>83</v>
@@ -3670,21 +3839,23 @@
         <v>73</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3709,13 +3880,13 @@
         <v>73</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>73</v>
@@ -3733,47 +3904,47 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>73</v>
@@ -3782,20 +3953,18 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3844,7 +4013,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3856,60 +4025,58 @@
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3918,7 +4085,7 @@
         <v>73</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>73</v>
@@ -3933,13 +4100,11 @@
         <v>73</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>73</v>
@@ -3957,19 +4122,19 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3978,15 +4143,15 @@
         <v>73</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3997,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>73</v>
@@ -4009,13 +4174,13 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4042,13 +4207,13 @@
         <v>73</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>73</v>
@@ -4066,13 +4231,13 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>73</v>
@@ -4084,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>73</v>
@@ -4092,10 +4257,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4103,7 +4268,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>83</v>
@@ -4118,13 +4283,13 @@
         <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4175,10 +4340,10 @@
         <v>73</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>83</v>
@@ -4193,7 +4358,7 @@
         <v>73</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>73</v>
@@ -4201,10 +4366,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4212,7 +4377,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>83</v>
@@ -4227,20 +4392,22 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Q25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="R25" t="s" s="2">
         <v>73</v>
       </c>
@@ -4284,16 +4451,16 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>95</v>
@@ -4302,7 +4469,7 @@
         <v>73</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>73</v>
@@ -4310,10 +4477,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4336,13 +4503,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4393,7 +4560,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -4402,31 +4569,31 @@
         <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4442,20 +4609,18 @@
         <v>73</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>73</v>
@@ -4504,7 +4669,7 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>74</v>
@@ -4516,60 +4681,56 @@
         <v>73</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
@@ -4617,19 +4778,19 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>73</v>
@@ -4638,26 +4799,26 @@
         <v>73</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -4666,18 +4827,20 @@
         <v>73</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>73</v>
@@ -4702,13 +4865,13 @@
         <v>73</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>73</v>
@@ -4726,68 +4889,72 @@
         <v>73</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>227</v>
+        <v>73</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
@@ -4835,19 +5002,19 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>73</v>
@@ -4856,26 +5023,26 @@
         <v>73</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>73</v>
@@ -4884,20 +5051,18 @@
         <v>73</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>73</v>
@@ -4922,60 +5087,60 @@
         <v>73</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4995,20 +5160,18 @@
         <v>73</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>73</v>
@@ -5057,10 +5220,10 @@
         <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>83</v>
@@ -5075,18 +5238,18 @@
         <v>73</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>165</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5094,7 +5257,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>83</v>
@@ -5106,16 +5269,16 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5166,47 +5329,47 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -5218,17 +5381,15 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>73</v>
@@ -5265,31 +5426,31 @@
         <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>73</v>
@@ -5298,23 +5459,23 @@
         <v>73</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -5329,20 +5490,18 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>73</v>
       </c>
@@ -5378,19 +5537,19 @@
         <v>73</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>74</v>
@@ -5402,7 +5561,7 @@
         <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>73</v>
@@ -5411,52 +5570,50 @@
         <v>73</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>73</v>
@@ -5505,7 +5662,7 @@
         <v>73</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -5517,7 +5674,7 @@
         <v>73</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>73</v>
@@ -5526,15 +5683,15 @@
         <v>73</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>248</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5542,7 +5699,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>83</v>
@@ -5554,16 +5711,16 @@
         <v>73</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5590,13 +5747,13 @@
         <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>279</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>73</v>
@@ -5614,47 +5771,47 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -5666,17 +5823,15 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>73</v>
@@ -5713,31 +5868,31 @@
         <v>73</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>73</v>
@@ -5746,28 +5901,26 @@
         <v>73</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>73</v>
@@ -5779,15 +5932,17 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>73</v>
@@ -5824,19 +5979,19 @@
         <v>73</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5857,15 +6012,15 @@
         <v>73</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5885,23 +6040,21 @@
         <v>73</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>73</v>
       </c>
@@ -5910,7 +6063,7 @@
         <v>73</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>73</v>
@@ -5949,7 +6102,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>74</v>
@@ -5970,15 +6123,15 @@
         <v>73</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>269</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5998,20 +6151,18 @@
         <v>73</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>73</v>
@@ -6060,7 +6211,7 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>74</v>
@@ -6069,10 +6220,10 @@
         <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>73</v>
@@ -6081,26 +6232,26 @@
         <v>73</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>276</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6109,21 +6260,21 @@
         <v>73</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>73</v>
       </c>
@@ -6159,31 +6310,31 @@
         <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>73</v>
@@ -6192,15 +6343,15 @@
         <v>73</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>284</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6211,7 +6362,7 @@
         <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>73</v>
@@ -6220,20 +6371,22 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6270,31 +6423,31 @@
         <v>73</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>73</v>
@@ -6303,23 +6456,25 @@
         <v>73</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>83</v>
@@ -6331,22 +6486,22 @@
         <v>73</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>73</v>
@@ -6395,19 +6550,19 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>73</v>
@@ -6421,14 +6576,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6449,20 +6602,16 @@
         <v>73</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>239</v>
+        <v>85</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>73</v>
       </c>
@@ -6510,19 +6659,19 @@
         <v>73</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>73</v>
@@ -6531,26 +6680,26 @@
         <v>73</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>73</v>
@@ -6562,15 +6711,17 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>73</v>
@@ -6607,31 +6758,31 @@
         <v>73</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>73</v>
@@ -6640,26 +6791,28 @@
         <v>73</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -6671,17 +6824,15 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>73</v>
@@ -6718,19 +6869,19 @@
         <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
@@ -6751,25 +6902,23 @@
         <v>73</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>83</v>
@@ -6781,19 +6930,23 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>73</v>
       </c>
@@ -6802,7 +6955,7 @@
         <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>73</v>
@@ -6841,19 +6994,19 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>73</v>
@@ -6862,15 +7015,15 @@
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>73</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6878,7 +7031,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>83</v>
@@ -6893,20 +7046,18 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6915,7 +7066,7 @@
         <v>73</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>307</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>73</v>
@@ -6954,7 +7105,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -6975,15 +7126,15 @@
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>269</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6991,7 +7142,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>83</v>
@@ -7006,18 +7157,18 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
       </c>
@@ -7065,7 +7216,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7074,7 +7225,7 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>95</v>
@@ -7086,15 +7237,15 @@
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>276</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7117,17 +7268,17 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7176,7 +7327,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7185,7 +7336,7 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
@@ -7197,15 +7348,15 @@
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>284</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7213,7 +7364,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>83</v>
@@ -7228,17 +7379,19 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7287,7 +7440,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7296,7 +7449,7 @@
         <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>95</v>
@@ -7308,17 +7461,19 @@
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>291</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>73</v>
       </c>
@@ -7336,22 +7491,22 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>73</v>
@@ -7400,19 +7555,19 @@
         <v>73</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>73</v>
@@ -7426,10 +7581,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7449,23 +7604,19 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>313</v>
+        <v>150</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>73</v>
       </c>
@@ -7513,7 +7664,7 @@
         <v>73</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>317</v>
+        <v>152</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>74</v>
@@ -7522,10 +7673,10 @@
         <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>73</v>
@@ -7534,26 +7685,26 @@
         <v>73</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>318</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>73</v>
@@ -7562,18 +7713,20 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>320</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>73</v>
@@ -7610,31 +7763,31 @@
         <v>73</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>323</v>
+        <v>160</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>73</v>
@@ -7643,23 +7796,25 @@
         <v>73</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>83</v>
@@ -7671,16 +7826,16 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7731,7 +7886,7 @@
         <v>73</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>324</v>
+        <v>160</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>74</v>
@@ -7743,13 +7898,13 @@
         <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>73</v>
@@ -7757,10 +7912,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7768,7 +7923,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>83</v>
@@ -7780,19 +7935,23 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>73</v>
       </c>
@@ -7801,7 +7960,7 @@
         <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>357</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>73</v>
@@ -7840,7 +7999,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -7849,10 +8008,10 @@
         <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>73</v>
@@ -7861,26 +8020,26 @@
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>147</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>73</v>
@@ -7889,19 +8048,19 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>198</v>
+        <v>323</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7951,19 +8110,19 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>73</v>
@@ -7972,50 +8131,48 @@
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>147</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8064,19 +8221,19 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>73</v>
@@ -8085,15 +8242,15 @@
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>128</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8101,7 +8258,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>83</v>
@@ -8116,16 +8273,18 @@
         <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
       </c>
@@ -8173,7 +8332,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8182,7 +8341,7 @@
         <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>333</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>95</v>
@@ -8191,18 +8350,18 @@
         <v>73</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>336</v>
+        <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8225,16 +8384,20 @@
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>73</v>
       </c>
@@ -8282,7 +8445,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8300,18 +8463,18 @@
         <v>73</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>73</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8334,16 +8497,20 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>73</v>
       </c>
@@ -8391,7 +8558,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8409,18 +8576,18 @@
         <v>73</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>73</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8443,13 +8610,13 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>192</v>
+        <v>370</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8500,7 +8667,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8518,18 +8685,18 @@
         <v>73</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8537,7 +8704,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>83</v>
@@ -8552,13 +8719,13 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8609,25 +8776,25 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>73</v>
@@ -8635,10 +8802,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8658,16 +8825,16 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>352</v>
+        <v>151</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8718,7 +8885,7 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
@@ -8727,31 +8894,31 @@
         <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>353</v>
+        <v>73</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8767,18 +8934,20 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>73</v>
@@ -8803,13 +8972,13 @@
         <v>73</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>357</v>
+        <v>73</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>73</v>
@@ -8827,7 +8996,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>354</v>
+        <v>160</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -8839,28 +9008,28 @@
         <v>73</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8873,22 +9042,26 @@
         <v>73</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8936,7 +9109,7 @@
         <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -8948,24 +9121,24 @@
         <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>363</v>
+        <v>73</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8985,16 +9158,16 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9045,7 +9218,7 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -9054,38 +9227,38 @@
         <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>73</v>
@@ -9094,20 +9267,18 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>388</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>73</v>
@@ -9156,72 +9327,68 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>202</v>
+        <v>391</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>73</v>
       </c>
@@ -9269,36 +9436,36 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9306,7 +9473,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9321,13 +9488,13 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9354,13 +9521,13 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -9378,10 +9545,10 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>83</v>
@@ -9396,7 +9563,7 @@
         <v>73</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>370</v>
+        <v>154</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>73</v>
@@ -9404,10 +9571,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9415,7 +9582,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>83</v>
@@ -9430,13 +9597,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9487,10 +9654,10 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>83</v>
@@ -9505,7 +9672,7 @@
         <v>73</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>375</v>
+        <v>154</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>73</v>
@@ -9513,10 +9680,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9539,13 +9706,13 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9596,7 +9763,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9614,7 +9781,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>73</v>
@@ -9622,10 +9789,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9648,13 +9815,13 @@
         <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9681,13 +9848,13 @@
         <v>73</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>73</v>
@@ -9705,7 +9872,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9723,9 +9890,887 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -592,7 +592,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ages.at/fhir/GRZ</t>
+    <t>https://www.ages.at/fhir/referenceNumber</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -695,7 +695,7 @@
     <t>Ingredient.for</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicinalProductDefinition|AdministrableProductDefinition|ManufacturedItemDefinition)
+    <t xml:space="preserve">Reference(https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-manufacturedItemDefinition|https://www.ages.at/fhir/medicinalproduct/StructureDefinition/at-medprod-administrableProductDefinition)
 </t>
   </si>
   <si>
@@ -1011,6 +1011,9 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>https://www.ages.at/fhir/GRZ</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1670,7 +1673,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6955,7 +6958,7 @@
         <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>73</v>
@@ -6994,7 +6997,7 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>74</v>
@@ -7015,15 +7018,15 @@
         <v>73</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7049,13 +7052,13 @@
         <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7105,7 +7108,7 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
@@ -7126,15 +7129,15 @@
         <v>73</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7160,14 +7163,14 @@
         <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>73</v>
@@ -7216,7 +7219,7 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
@@ -7225,7 +7228,7 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>95</v>
@@ -7237,15 +7240,15 @@
         <v>73</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7271,14 +7274,14 @@
         <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>73</v>
@@ -7327,7 +7330,7 @@
         <v>73</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
@@ -7336,7 +7339,7 @@
         <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>95</v>
@@ -7348,15 +7351,15 @@
         <v>73</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7382,16 +7385,16 @@
         <v>239</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>73</v>
@@ -7440,7 +7443,7 @@
         <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>74</v>
@@ -7461,18 +7464,18 @@
         <v>73</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>289</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>73</v>
@@ -7497,7 +7500,7 @@
         <v>290</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>292</v>
@@ -7581,7 +7584,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>304</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>306</v>
@@ -7801,7 +7804,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>306</v>
@@ -7912,7 +7915,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>313</v>
@@ -7960,7 +7963,7 @@
         <v>73</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>73</v>
@@ -7999,7 +8002,7 @@
         <v>73</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>74</v>
@@ -8020,15 +8023,15 @@
         <v>73</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8054,13 +8057,13 @@
         <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8110,7 +8113,7 @@
         <v>73</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>74</v>
@@ -8131,15 +8134,15 @@
         <v>73</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8165,14 +8168,14 @@
         <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>73</v>
@@ -8221,7 +8224,7 @@
         <v>73</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>74</v>
@@ -8230,7 +8233,7 @@
         <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>95</v>
@@ -8242,15 +8245,15 @@
         <v>73</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8276,14 +8279,14 @@
         <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>73</v>
@@ -8332,7 +8335,7 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
@@ -8341,7 +8344,7 @@
         <v>83</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>95</v>
@@ -8353,15 +8356,15 @@
         <v>73</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8387,16 +8390,16 @@
         <v>239</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>73</v>
@@ -8445,7 +8448,7 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
@@ -8466,15 +8469,15 @@
         <v>73</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8500,16 +8503,16 @@
         <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>73</v>
@@ -8558,7 +8561,7 @@
         <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
@@ -8579,15 +8582,15 @@
         <v>73</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8610,13 +8613,13 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8667,7 +8670,7 @@
         <v>73</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>74</v>
@@ -8693,10 +8696,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8722,10 +8725,10 @@
         <v>250</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8776,7 +8779,7 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>74</v>
@@ -8788,13 +8791,13 @@
         <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>73</v>
@@ -8802,10 +8805,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8911,10 +8914,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9022,10 +9025,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9135,10 +9138,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9161,13 +9164,13 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9218,7 +9221,7 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
@@ -9236,7 +9239,7 @@
         <v>73</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>73</v>
@@ -9244,10 +9247,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9273,10 +9276,10 @@
         <v>190</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9327,7 +9330,7 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
@@ -9353,10 +9356,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9379,13 +9382,13 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9436,7 +9439,7 @@
         <v>73</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9454,7 +9457,7 @@
         <v>73</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>73</v>
@@ -9462,10 +9465,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9491,10 +9494,10 @@
         <v>190</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9545,7 +9548,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9571,10 +9574,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9600,10 +9603,10 @@
         <v>171</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9654,7 +9657,7 @@
         <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
@@ -9680,10 +9683,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9709,10 +9712,10 @@
         <v>190</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9763,7 +9766,7 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>74</v>
@@ -9781,7 +9784,7 @@
         <v>73</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>73</v>
@@ -9789,10 +9792,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9818,10 +9821,10 @@
         <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9851,10 +9854,10 @@
         <v>232</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>73</v>
@@ -9872,7 +9875,7 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
@@ -9890,7 +9893,7 @@
         <v>73</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>73</v>
@@ -9898,10 +9901,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9927,10 +9930,10 @@
         <v>250</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9981,7 +9984,7 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
@@ -9999,7 +10002,7 @@
         <v>73</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>73</v>
@@ -10007,10 +10010,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10116,10 +10119,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10227,10 +10230,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10340,10 +10343,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10369,10 +10372,10 @@
         <v>276</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10423,7 +10426,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -10441,7 +10444,7 @@
         <v>73</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>73</v>
@@ -10449,10 +10452,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10475,13 +10478,13 @@
         <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10532,7 +10535,7 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -10550,7 +10553,7 @@
         <v>73</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>73</v>
@@ -10558,10 +10561,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10587,10 +10590,10 @@
         <v>190</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10641,7 +10644,7 @@
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
@@ -10659,7 +10662,7 @@
         <v>73</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>73</v>
@@ -10667,10 +10670,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10696,10 +10699,10 @@
         <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10729,10 +10732,10 @@
         <v>232</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>73</v>
@@ -10750,7 +10753,7 @@
         <v>73</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
@@ -10768,7 +10771,7 @@
         <v>73</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>73</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
